--- a/public/GradingTemplate.xlsx
+++ b/public/GradingTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwnyniche/Documents/GitHub/classroom/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE86626-E54E-1840-A63D-04E7A2AD1F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F2E526-ACD1-E54A-A25D-13F43D2D333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7900" yWindow="3060" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,13 +866,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -882,6 +885,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>18120593</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>18120511</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>18120033</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
